--- a/ERP Master/Customer_Master/customer_data.xlsx
+++ b/ERP Master/Customer_Master/customer_data.xlsx
@@ -102,9 +102,6 @@
     <t>GSTNumber</t>
   </si>
   <si>
-    <t>ABC Corp Ltd</t>
-  </si>
-  <si>
     <t>GENERAL</t>
   </si>
   <si>
@@ -177,16 +174,19 @@
     <t>9988776655</t>
   </si>
   <si>
-    <t>AABCA3622D</t>
-  </si>
-  <si>
-    <t>27AABCA3622DSZO</t>
-  </si>
-  <si>
     <t>BBACA1534C</t>
   </si>
   <si>
     <t>27BBACA1534C1ZQ</t>
+  </si>
+  <si>
+    <t>Shubh Corp Ltd</t>
+  </si>
+  <si>
+    <t>ASBCA3622D</t>
+  </si>
+  <si>
+    <t>27ASBCA3622DSZO</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,70 +642,70 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2">
         <v>20</v>
@@ -714,81 +714,81 @@
         <v>20000</v>
       </c>
       <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
-      </c>
       <c r="AA2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>39</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>40</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>41</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>42</v>
       </c>
-      <c r="U3" t="s">
-        <v>43</v>
-      </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W3">
         <v>30</v>
@@ -797,16 +797,17 @@
         <v>25000</v>
       </c>
       <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" t="s">
-        <v>45</v>
-      </c>
       <c r="AA3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>